--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visheshgupta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visheshgupta/Desktop/IDS_789_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F935AD1-72B0-1B45-B265-BFC834FE9BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9844F1A-97C4-444E-9A4B-F59997E3D213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="780" windowWidth="27520" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20020" yWindow="3840" windowWidth="27520" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Company Name</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>JPMorgan Chase (JPM)</t>
   </si>
 </sst>
 </file>
@@ -477,9 +480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -517,6 +522,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
+      <c r="E2">
+        <v>53.47</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -531,6 +539,9 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
+      <c r="E3">
+        <v>57.51</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -545,6 +556,9 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
+      <c r="E4">
+        <v>54.13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -559,6 +573,9 @@
       <c r="D5" t="s">
         <v>28</v>
       </c>
+      <c r="E5">
+        <v>-8.57</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -573,6 +590,9 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
+      <c r="E6">
+        <v>87.72</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -587,6 +607,9 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
+      <c r="E7">
+        <v>56.8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -601,6 +624,9 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="E8">
+        <v>5.97</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -615,6 +641,9 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
+      <c r="E9">
+        <v>33.270000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -629,6 +658,9 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
+      <c r="E10">
+        <v>-9.25</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -643,6 +675,9 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
+      <c r="E11">
+        <v>27.59</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -657,6 +692,9 @@
       <c r="D12" t="s">
         <v>29</v>
       </c>
+      <c r="E12">
+        <v>303.51</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -671,6 +709,9 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
+      <c r="E13">
+        <v>276.95</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -685,6 +726,9 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
+      <c r="E14">
+        <v>46.37</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -699,6 +743,9 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
+      <c r="E15">
+        <v>196.37</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -713,8 +760,11 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>93.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -727,8 +777,11 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>211.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -741,8 +794,11 @@
       <c r="D18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>53.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -755,8 +811,11 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>219.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -768,6 +827,26 @@
       </c>
       <c r="D20" t="s">
         <v>26</v>
+      </c>
+      <c r="E20">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>112.82</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/visheshgupta/Desktop/IDS_789_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9844F1A-97C4-444E-9A4B-F59997E3D213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8007FF2-F534-4478-8924-AC537B0C1B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="3840" windowWidth="27520" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34455" yWindow="3345" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
   <si>
     <t>Company Name</t>
   </si>
@@ -113,6 +113,72 @@
   </si>
   <si>
     <t>JPMorgan Chase (JPM)</t>
+  </si>
+  <si>
+    <t>UnitedHealth Group Incorporated (UNH)</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson (JNJ)</t>
+  </si>
+  <si>
+    <t>AbbVie Inc. (ABBV)</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co., Inc. (MRK)</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific Inc. (TMO)</t>
+  </si>
+  <si>
+    <t>Eli Lilly and Company (LLY)</t>
+  </si>
+  <si>
+    <t>Amgen Inc. (AMGN)</t>
+  </si>
+  <si>
+    <t>Abbott Laboratories (ABT)</t>
+  </si>
+  <si>
+    <t>Intuitive Surgical, Inc. (ISRG)</t>
+  </si>
+  <si>
+    <t>Pfizer Inc. (PFE)</t>
+  </si>
+  <si>
+    <t>The Williams Companies</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Phillips 66 (PSX)</t>
+  </si>
+  <si>
+    <t>EOG Resources, Inc. (EOG)</t>
+  </si>
+  <si>
+    <t>Valero Energy Corporation (VLO)</t>
+  </si>
+  <si>
+    <t>Marathon Petroleum Corporation (MPC)</t>
+  </si>
+  <si>
+    <t>Exxon Mobil Corporation (XOM)</t>
+  </si>
+  <si>
+    <t>Chevron Corporation (CVX)</t>
+  </si>
+  <si>
+    <t>Kinder Morgan, Inc. (KMI)</t>
+  </si>
+  <si>
+    <t>Schlumberger Limited (SLB)</t>
+  </si>
+  <si>
+    <t>ONEOK, Inc. (OKE)</t>
   </si>
 </sst>
 </file>
@@ -480,19 +546,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A25" sqref="A22:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -526,7 +592,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -543,7 +609,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -560,7 +626,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -577,7 +643,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -594,7 +660,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -611,7 +677,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -628,7 +694,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -645,7 +711,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -662,7 +728,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -679,7 +745,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -696,7 +762,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -713,7 +779,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -730,7 +796,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -747,7 +813,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -764,7 +830,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -781,7 +847,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -798,7 +864,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -815,7 +881,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -832,7 +898,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -847,6 +913,346 @@
       </c>
       <c r="E21">
         <v>112.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>0.59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>159.18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>0.52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>0.62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>145.27000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>0.78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0.42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>675.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>0.6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>0.72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <v>50.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1.39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>193.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>0.62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31">
+        <v>-7.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>1.06</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>248.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>1.32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>33.340000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>1.29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>130.32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>1.37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>1.37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36">
+        <v>182.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>0.88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>119.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>1.08</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>60.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>0.91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>1.53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>37.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>1.62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>117.73</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danishmak/Documents/FinanceBusinessModels/IDS_789_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8007FF2-F534-4478-8924-AC537B0C1B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FBA04-6216-3A45-810B-AFABA7AEB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34455" yWindow="3345" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
   <si>
     <t>Company Name</t>
   </si>
@@ -179,6 +192,69 @@
   </si>
   <si>
     <t>ONEOK, Inc. (OKE)</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>APLD</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>EQR</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>INVH</t>
+  </si>
+  <si>
+    <t>PEAK</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
   </si>
 </sst>
 </file>
@@ -546,19 +622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A22:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -592,7 +668,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -609,7 +685,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -626,7 +702,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -643,7 +719,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -660,7 +736,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -677,7 +753,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -694,7 +770,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -711,7 +787,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -728,7 +804,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -745,7 +821,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -762,7 +838,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -779,7 +855,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -796,7 +872,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -813,7 +889,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -830,7 +906,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -847,7 +923,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -864,7 +940,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -881,7 +957,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -898,7 +974,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -915,7 +991,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -932,7 +1008,7 @@
         <v>159.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -949,7 +1025,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -966,7 +1042,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -983,7 +1059,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1000,7 +1076,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1017,7 +1093,7 @@
         <v>675.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1034,7 +1110,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1127,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1068,7 +1144,7 @@
         <v>193.29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1085,7 +1161,7 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1102,7 +1178,7 @@
         <v>248.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1119,7 +1195,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1212,7 @@
         <v>130.32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1153,7 +1229,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1170,7 +1246,7 @@
         <v>182.79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1187,7 +1263,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1204,7 +1280,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1221,7 +1297,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1238,7 +1314,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1253,6 +1329,329 @@
       </c>
       <c r="E41">
         <v>117.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <v>2.12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42">
+        <v>47.620000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43">
+        <v>0.92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43">
+        <v>16.830000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44">
+        <v>1.26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>1.08</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>1.76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>200.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1.29</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>22.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>1.31</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>36.22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>1.37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49">
+        <v>-17.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>1.55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50">
+        <v>81.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51">
+        <v>1.01</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53">
+        <v>0.85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>43.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>0.68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>0.97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>45.92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57">
+        <v>1.04</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>0.92</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>0.75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59">
+        <v>-10.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>0.71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>44.269999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danishmak/Documents/FinanceBusinessModels/IDS_789_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\IDS_789_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4FBA04-6216-3A45-810B-AFABA7AEB141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357A4933-2B81-451C-95B2-94B5481A9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="97">
   <si>
     <t>Company Name</t>
   </si>
@@ -255,13 +255,82 @@
   </si>
   <si>
     <t>Real Estate</t>
+  </si>
+  <si>
+    <t>LOCKHEED MARTIN CORPORATION (XNYS:LMT)</t>
+  </si>
+  <si>
+    <t>CATERPILLAR INC. (XBUE:CAT)</t>
+  </si>
+  <si>
+    <t>UNITED PARCEL SERVICE, INC. (XNYS:UPS)</t>
+  </si>
+  <si>
+    <t>WASTE MANAGEMENT, INC. (XNYS:WM)</t>
+  </si>
+  <si>
+    <t>QUANTA SERVICES, INC. (XNYS:PWR)</t>
+  </si>
+  <si>
+    <t>Siemens AG (XBUE:SIEGY)</t>
+  </si>
+  <si>
+    <t>Hitachi, Ltd. (OTCM:HTHIY)</t>
+  </si>
+  <si>
+    <t>Fastenal Company (XNAS:FAST)</t>
+  </si>
+  <si>
+    <t>SNAP-ON INCORPORATED (XNYS:SNA)</t>
+  </si>
+  <si>
+    <t>ILLINOIS TOOL WORKS INC. (XNYS:ITW)</t>
+  </si>
+  <si>
+    <t>WALMART INC. (XNYS:WMT)</t>
+  </si>
+  <si>
+    <t>PEPSICO, INC. (XNAS:PEP)</t>
+  </si>
+  <si>
+    <t>THE PROCTER &amp; GAMBLE COMPANY (XNYS:PG)</t>
+  </si>
+  <si>
+    <t>MONSTER BEVERAGE CORPORATION (XNAS:MNST)</t>
+  </si>
+  <si>
+    <t>THE CLOROX COMPANY (XNYS:CLX)</t>
+  </si>
+  <si>
+    <t>COSTCO WHOLESALE CORPORATION (XNAS:COST)</t>
+  </si>
+  <si>
+    <t>DOLLAR GENERAL CORPORATION (XNYS:DG)</t>
+  </si>
+  <si>
+    <t>COLGATE-PALMOLIVE COMPANY (XNYS:CL)</t>
+  </si>
+  <si>
+    <t>THE HERSHEY COMPANY (XNYS:HSY)</t>
+  </si>
+  <si>
+    <t>UNILEVER PLC (XBUE:UL)</t>
+  </si>
+  <si>
+    <t>Industruals</t>
+  </si>
+  <si>
+    <t>Consumer Staples</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +346,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,14 +390,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,19 +730,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -668,7 +776,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -685,7 +793,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -702,7 +810,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -719,7 +827,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -736,7 +844,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -753,7 +861,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -770,7 +878,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -787,7 +895,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -804,7 +912,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -821,7 +929,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -838,7 +946,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -855,7 +963,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -872,7 +980,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -889,7 +997,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -906,7 +1014,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -923,7 +1031,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -940,7 +1048,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -957,7 +1065,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -974,7 +1082,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -991,7 +1099,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1008,7 +1116,7 @@
         <v>159.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1025,7 +1133,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1150,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1059,7 +1167,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1076,7 +1184,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1093,7 +1201,7 @@
         <v>675.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1110,7 +1218,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1127,7 +1235,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1144,7 +1252,7 @@
         <v>193.29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1161,7 +1269,7 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1178,7 +1286,7 @@
         <v>248.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1195,7 +1303,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1212,7 +1320,7 @@
         <v>130.32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1229,7 +1337,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1246,7 +1354,7 @@
         <v>182.79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1371,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1388,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1297,7 +1405,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1422,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1331,7 +1439,7 @@
         <v>117.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1348,7 +1456,7 @@
         <v>47.620000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1365,7 +1473,7 @@
         <v>16.830000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1382,7 +1490,7 @@
         <v>76.72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1507,7 @@
         <v>35.76</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1416,7 +1524,7 @@
         <v>200.93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1433,7 +1541,7 @@
         <v>22.42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1450,7 +1558,7 @@
         <v>36.22</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1467,7 +1575,7 @@
         <v>-17.62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1484,7 +1592,7 @@
         <v>81.98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1501,7 +1609,7 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1518,7 +1626,7 @@
         <v>9.7799999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1535,7 +1643,7 @@
         <v>43.37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1552,7 +1660,7 @@
         <v>41.61</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1569,7 +1677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1586,7 +1694,7 @@
         <v>45.92</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1603,7 +1711,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -1620,7 +1728,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -1637,7 +1745,7 @@
         <v>-10.84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1654,7 +1762,348 @@
         <v>44.269999999999996</v>
       </c>
     </row>
+    <row r="61" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.15190000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.14960000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.15720000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.15279999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.15090000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.54659999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="4">
+        <v>8.3599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.17430000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.1409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.1283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\IDS_789_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danishmak/Documents/FinanceBusinessModels/IDS_789_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357A4933-2B81-451C-95B2-94B5481A9139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D037742-C3A5-5846-BA48-77443D35FFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -418,9 +418,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,17 +729,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -776,7 +774,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -793,7 +791,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -810,7 +808,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -827,7 +825,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -844,7 +842,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -861,7 +859,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -878,7 +876,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -895,7 +893,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -912,7 +910,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -929,7 +927,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -946,7 +944,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -963,7 +961,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -980,7 +978,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -997,7 +995,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1099,7 +1097,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>159.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1167,7 +1165,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1184,7 +1182,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>675.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>193.29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1286,7 +1284,7 @@
         <v>248.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>130.32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>182.79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1371,7 +1369,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1386,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>117.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1453,10 +1451,10 @@
         <v>28</v>
       </c>
       <c r="E42">
-        <v>47.620000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1236.1100000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1470,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="E43">
-        <v>16.830000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1487,10 +1485,10 @@
         <v>28</v>
       </c>
       <c r="E44">
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1504,10 +1502,10 @@
         <v>27</v>
       </c>
       <c r="E45">
-        <v>35.76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1521,10 +1519,10 @@
         <v>27</v>
       </c>
       <c r="E46">
-        <v>200.93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2694.8599999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1538,10 +1536,10 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>22.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>249.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1555,10 +1553,10 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>36.22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>173.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1572,10 +1570,10 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>-17.62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>-47.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -1589,10 +1587,10 @@
         <v>26</v>
       </c>
       <c r="E50">
-        <v>81.98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16871.830000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1606,10 +1604,10 @@
         <v>26</v>
       </c>
       <c r="E51">
-        <v>17.18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46.400000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -1623,10 +1621,10 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1640,10 +1638,10 @@
         <v>27</v>
       </c>
       <c r="E53">
-        <v>43.37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1657,10 +1655,10 @@
         <v>26</v>
       </c>
       <c r="E54">
-        <v>41.61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -1674,10 +1672,10 @@
         <v>26</v>
       </c>
       <c r="E55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -1691,10 +1689,10 @@
         <v>26</v>
       </c>
       <c r="E56">
-        <v>45.92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27.21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1708,10 +1706,10 @@
         <v>26</v>
       </c>
       <c r="E57">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -1725,10 +1723,10 @@
         <v>28</v>
       </c>
       <c r="E58">
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -1742,10 +1740,10 @@
         <v>26</v>
       </c>
       <c r="E59">
-        <v>-10.84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-22.759999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -1759,10 +1757,10 @@
         <v>28</v>
       </c>
       <c r="E60">
-        <v>44.269999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>80.600000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>74</v>
       </c>
@@ -1775,11 +1773,11 @@
       <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="4">
-        <v>0.15190000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61">
+        <v>15.190000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>75</v>
       </c>
@@ -1792,11 +1790,11 @@
       <c r="D62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="4">
-        <v>0.14960000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E62">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>76</v>
       </c>
@@ -1806,14 +1804,14 @@
       <c r="C63" s="3">
         <v>0.98</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="4">
-        <v>6.0400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E63">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>77</v>
       </c>
@@ -1823,14 +1821,14 @@
       <c r="C64" s="3">
         <v>0.75</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64">
+        <v>12.659999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>78</v>
       </c>
@@ -1843,11 +1841,11 @@
       <c r="D65" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="4">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>12.659999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
@@ -1860,11 +1858,11 @@
       <c r="D66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>80</v>
       </c>
@@ -1874,14 +1872,14 @@
       <c r="C67" s="3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E67" s="4">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -1894,11 +1892,11 @@
       <c r="D68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="4">
-        <v>0.15720000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -1911,11 +1909,11 @@
       <c r="D69" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="4">
-        <v>0.1545</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -1925,14 +1923,14 @@
       <c r="C70" s="3">
         <v>0.91</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="4">
-        <v>0.1545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E70">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -1945,11 +1943,11 @@
       <c r="D71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="4">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E71">
+        <v>11.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -1962,11 +1960,11 @@
       <c r="D72" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="4">
-        <v>0.15279999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
@@ -1979,11 +1977,11 @@
       <c r="D73" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="4">
-        <v>0.15090000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E73">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
@@ -1996,11 +1994,11 @@
       <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E74" s="4">
-        <v>0.54659999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E74">
+        <v>54.66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
@@ -2013,11 +2011,11 @@
       <c r="D75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="4">
-        <v>8.3599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>89</v>
       </c>
@@ -2027,14 +2025,14 @@
       <c r="C76" s="3">
         <v>0.79</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E76" s="4">
-        <v>0.17430000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>17.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
@@ -2044,14 +2042,14 @@
       <c r="C77" s="3">
         <v>0.45</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="4">
-        <v>0.1409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <v>14.09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>91</v>
       </c>
@@ -2064,11 +2062,11 @@
       <c r="D78" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E78" s="4">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -2078,14 +2076,14 @@
       <c r="C79" s="3">
         <v>0.37</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0.1295</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79">
+        <v>12.950000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -2098,8 +2096,8 @@
       <c r="D80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E80" s="4">
-        <v>0.1283</v>
+      <c r="E80">
+        <v>12.83</v>
       </c>
     </row>
   </sheetData>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danishmak/Documents/FinanceBusinessModels/IDS_789_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D037742-C3A5-5846-BA48-77443D35FFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62DDA5-E8D5-1D41-ABCA-605979F354A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,9 +218,6 @@
     <t>SNOW</t>
   </si>
   <si>
-    <t>APLD</t>
-  </si>
-  <si>
     <t>PLD</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>COIN</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -423,6 +423,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1442,7 +1443,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>2.12</v>
@@ -1459,7 +1460,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43">
         <v>0.92</v>
@@ -1476,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>1.26</v>
@@ -1493,7 +1494,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1.08</v>
@@ -1510,7 +1511,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>1.76</v>
@@ -1527,7 +1528,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>1.29</v>
@@ -1544,7 +1545,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48">
         <v>1.31</v>
@@ -1561,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>1.37</v>
@@ -1575,27 +1576,28 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
-        <v>1.55</v>
+        <v>3.34</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
       </c>
-      <c r="E50">
-        <v>16871.830000000002</v>
+      <c r="E50" s="5">
+        <f>-0.1057*100</f>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51">
         <v>1.01</v>
@@ -1609,10 +1611,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52">
         <v>0.57999999999999996</v>
@@ -1626,10 +1628,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53">
         <v>0.85</v>
@@ -1643,10 +1645,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>0.68</v>
@@ -1660,10 +1662,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55">
         <v>1.1499999999999999</v>
@@ -1677,10 +1679,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>0.97</v>
@@ -1694,10 +1696,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57">
         <v>1.04</v>
@@ -1711,10 +1713,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>0.92</v>
@@ -1728,10 +1730,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59">
         <v>0.75</v>
@@ -1745,10 +1747,10 @@
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60">
         <v>0.71</v>
@@ -1762,10 +1764,10 @@
     </row>
     <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="3">
         <v>0.48</v>
@@ -1779,10 +1781,10 @@
     </row>
     <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="3">
         <v>0.95</v>
@@ -1796,10 +1798,10 @@
     </row>
     <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3">
         <v>0.98</v>
@@ -1813,10 +1815,10 @@
     </row>
     <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3">
         <v>0.75</v>
@@ -1830,10 +1832,10 @@
     </row>
     <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3">
         <v>1.08</v>
@@ -1847,16 +1849,16 @@
     </row>
     <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3">
         <v>1.22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E66">
         <v>8.5</v>
@@ -1864,10 +1866,10 @@
     </row>
     <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="3">
         <v>1.1499999999999999</v>
@@ -1881,10 +1883,10 @@
     </row>
     <row r="68" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" s="3">
         <v>0.98</v>
@@ -1898,10 +1900,10 @@
     </row>
     <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="3">
         <v>0.93</v>
@@ -1915,10 +1917,10 @@
     </row>
     <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" s="3">
         <v>0.91</v>
@@ -1932,10 +1934,10 @@
     </row>
     <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C71" s="3">
         <v>0.52</v>
@@ -1949,10 +1951,10 @@
     </row>
     <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3">
         <v>0.54</v>
@@ -1966,10 +1968,10 @@
     </row>
     <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3">
         <v>0.41</v>
@@ -1983,10 +1985,10 @@
     </row>
     <row r="74" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="3">
         <v>0.74</v>
@@ -2000,10 +2002,10 @@
     </row>
     <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C75" s="3">
         <v>0.4</v>
@@ -2017,10 +2019,10 @@
     </row>
     <row r="76" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3">
         <v>0.79</v>
@@ -2034,10 +2036,10 @@
     </row>
     <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="3">
         <v>0.45</v>
@@ -2051,10 +2053,10 @@
     </row>
     <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="3">
         <v>0.41</v>
@@ -2068,10 +2070,10 @@
     </row>
     <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3">
         <v>0.37</v>
@@ -2085,10 +2087,10 @@
     </row>
     <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="3">
         <v>0.23</v>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danishmak/Documents/FinanceBusinessModels/IDS_789_Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\DUKE\STUDIES\FALL 2024\IDS 789 - Finance Fundamentals\IDS_789_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D62DDA5-E8D5-1D41-ABCA-605979F354A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE27597-5D18-4395-98A1-A82D9BB3AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,18 +730,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -775,7 +775,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -792,7 +792,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -809,7 +809,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -826,7 +826,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -843,7 +843,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -860,7 +860,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -877,7 +877,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -894,7 +894,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -911,7 +911,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -928,7 +928,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -945,7 +945,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -962,7 +962,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -979,7 +979,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>159.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>675.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>193.29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>248.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>130.32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>182.79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>117.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1236.1100000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>189.72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>184.85</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>159.34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>2694.8599999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>-47.52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>-10.57</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>46.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>-22.759999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>15.190000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>75</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>12.659999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>77</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>12.659999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>78</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>80</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>82</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>85</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>54.66</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>87</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>88</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>89</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>90</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>12.950000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>

--- a/Companies.xlsx
+++ b/Companies.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\DUKE\STUDIES\FALL 2024\IDS 789 - Finance Fundamentals\IDS_789_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Downloads\IDS_789_Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE27597-5D18-4395-98A1-A82D9BB3AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731BF057-B7B9-434F-B2FF-451E84F03B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$80</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -731,17 +734,17 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -775,7 +778,7 @@
         <v>53.47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -792,7 +795,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -809,7 +812,7 @@
         <v>54.13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -826,7 +829,7 @@
         <v>-8.57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -843,7 +846,7 @@
         <v>87.72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -860,7 +863,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -877,7 +880,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -894,7 +897,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -911,7 +914,7 @@
         <v>-9.25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -928,7 +931,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -945,7 +948,7 @@
         <v>303.51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -962,7 +965,7 @@
         <v>276.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -979,7 +982,7 @@
         <v>46.37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -996,7 +999,7 @@
         <v>196.37</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>93.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>211.02</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1064,7 +1067,7 @@
         <v>219.69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>159.18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>145.27000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>43.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>84.88</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>675.16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>57.09</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>193.29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>-7.22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>248.45</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>33.340000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>130.32</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>69.11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1356,7 @@
         <v>182.79</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>119.31</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>60.29</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>117.73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1455,7 +1458,7 @@
         <v>1236.1100000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>189.72</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>184.85</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>159.34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>2694.8599999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>249.31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>173.42</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>-47.52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>-10.57</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>46.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>102.46</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>-22.759999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>80.600000000000009</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -1776,10 +1779,10 @@
         <v>26</v>
       </c>
       <c r="E61">
-        <v>15.190000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>74</v>
       </c>
@@ -1793,10 +1796,10 @@
         <v>28</v>
       </c>
       <c r="E62">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>75</v>
       </c>
@@ -1810,10 +1813,10 @@
         <v>29</v>
       </c>
       <c r="E63">
-        <v>6.04</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>76</v>
       </c>
@@ -1827,10 +1830,10 @@
         <v>26</v>
       </c>
       <c r="E64">
-        <v>12.659999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>77</v>
       </c>
@@ -1844,10 +1847,10 @@
         <v>26</v>
       </c>
       <c r="E65">
-        <v>12.659999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>78</v>
       </c>
@@ -1861,10 +1864,10 @@
         <v>95</v>
       </c>
       <c r="E66">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -1878,10 +1881,10 @@
         <v>29</v>
       </c>
       <c r="E67">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>211.93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>80</v>
       </c>
@@ -1895,10 +1898,10 @@
         <v>29</v>
       </c>
       <c r="E68">
-        <v>15.72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>81</v>
       </c>
@@ -1912,10 +1915,10 @@
         <v>26</v>
       </c>
       <c r="E69">
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>82</v>
       </c>
@@ -1929,10 +1932,10 @@
         <v>28</v>
       </c>
       <c r="E70">
-        <v>15.45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>83</v>
       </c>
@@ -1946,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="E71">
-        <v>11.600000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>84</v>
       </c>
@@ -1963,10 +1966,10 @@
         <v>28</v>
       </c>
       <c r="E72">
-        <v>15.28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>85</v>
       </c>
@@ -1980,10 +1983,10 @@
         <v>27</v>
       </c>
       <c r="E73">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -1997,10 +2000,10 @@
         <v>28</v>
       </c>
       <c r="E74">
-        <v>54.66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>87</v>
       </c>
@@ -2014,10 +2017,10 @@
         <v>26</v>
       </c>
       <c r="E75">
-        <v>8.36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>88</v>
       </c>
@@ -2031,10 +2034,10 @@
         <v>29</v>
       </c>
       <c r="E76">
-        <v>17.43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>89</v>
       </c>
@@ -2048,10 +2051,10 @@
         <v>26</v>
       </c>
       <c r="E77">
-        <v>14.09</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-51.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>90</v>
       </c>
@@ -2065,10 +2068,10 @@
         <v>28</v>
       </c>
       <c r="E78">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>91</v>
       </c>
@@ -2082,10 +2085,10 @@
         <v>26</v>
       </c>
       <c r="E79">
-        <v>12.950000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -2099,7 +2102,7 @@
         <v>26</v>
       </c>
       <c r="E80">
-        <v>12.83</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
